--- a/data/trans_orig/P1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>26867</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18703</v>
+        <v>18762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40117</v>
+        <v>38302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03871328352200053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02694891788906383</v>
+        <v>0.02703420586957668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05780378590117236</v>
+        <v>0.05518987793543399</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>35644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26447</v>
+        <v>26409</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50018</v>
+        <v>49351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0517823607972557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03842021376429841</v>
+        <v>0.03836613376440885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07266410383511926</v>
+        <v>0.07169408562602723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -786,19 +786,19 @@
         <v>62512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47240</v>
+        <v>48588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78849</v>
+        <v>79483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04522106171217295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03417315511462392</v>
+        <v>0.03514881076642704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05703941158222914</v>
+        <v>0.05749778668664616</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>667145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653895</v>
+        <v>655710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675309</v>
+        <v>675250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9612867164779995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9421962140988274</v>
+        <v>0.9448101220645659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9730510821109362</v>
+        <v>0.9729657941304233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -836,19 +836,19 @@
         <v>652707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638333</v>
+        <v>639000</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661904</v>
+        <v>661942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9482176392027443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9273358961648805</v>
+        <v>0.9283059143739727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9615797862357015</v>
+        <v>0.9616338662355912</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1315</v>
@@ -857,19 +857,19 @@
         <v>1319851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1303514</v>
+        <v>1302880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1335123</v>
+        <v>1333775</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.954778938287827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9429605884177709</v>
+        <v>0.942502213313354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9658268448853762</v>
+        <v>0.9648511892335729</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>50494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36814</v>
+        <v>38205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64635</v>
+        <v>64620</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05249976449102146</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03827613977237888</v>
+        <v>0.03972243261159923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06720263332441798</v>
+        <v>0.06718602089417262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -982,19 +982,19 @@
         <v>70659</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54148</v>
+        <v>53503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89509</v>
+        <v>88882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0729655954518193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05591536330109643</v>
+        <v>0.05524954835185403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09243038771012259</v>
+        <v>0.0917825999827627</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -1003,19 +1003,19 @@
         <v>121154</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101752</v>
+        <v>98607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144864</v>
+        <v>145149</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06276763303083409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05271602377098623</v>
+        <v>0.05108649357216711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07505170119826067</v>
+        <v>0.07519900112907588</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>911306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>897165</v>
+        <v>897180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>924986</v>
+        <v>923595</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9475002355089785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.932797366675582</v>
+        <v>0.9328139791058274</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9617238602276211</v>
+        <v>0.9602775673884008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>846</v>
@@ -1053,19 +1053,19 @@
         <v>897734</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>878884</v>
+        <v>879511</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>914245</v>
+        <v>914890</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9270344045481808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9075696122898773</v>
+        <v>0.9082174000172373</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9440846366989035</v>
+        <v>0.9447504516481459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1694</v>
@@ -1074,19 +1074,19 @@
         <v>1809039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1785329</v>
+        <v>1785044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1828441</v>
+        <v>1831586</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9372323669691659</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9249482988017395</v>
+        <v>0.924800998870924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9472839762290138</v>
+        <v>0.9489135064278329</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>43157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31512</v>
+        <v>31168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56273</v>
+        <v>58461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06360565114651204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04644297000298666</v>
+        <v>0.04593601693767677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08293570086250235</v>
+        <v>0.086161438378207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -1199,19 +1199,19 @@
         <v>83624</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66909</v>
+        <v>67419</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100912</v>
+        <v>101845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1222863045614557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09784250029243427</v>
+        <v>0.0985881633718418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1475666167884043</v>
+        <v>0.1489307860065797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -1220,19 +1220,19 @@
         <v>126781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106015</v>
+        <v>107016</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149286</v>
+        <v>148840</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0930608133832697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07781773649621637</v>
+        <v>0.07855274501791677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1095795805398554</v>
+        <v>0.1092522572357831</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>635352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622236</v>
+        <v>620048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646997</v>
+        <v>647341</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9363943488534879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9170642991374971</v>
+        <v>0.9138385616217928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9535570299970133</v>
+        <v>0.9540639830623232</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -1270,19 +1270,19 @@
         <v>600217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>582929</v>
+        <v>581996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616932</v>
+        <v>616422</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8777136954385443</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8524333832115957</v>
+        <v>0.8510692139934202</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9021574997075656</v>
+        <v>0.9014118366281582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1210</v>
@@ -1291,19 +1291,19 @@
         <v>1235569</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1213064</v>
+        <v>1213510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1256335</v>
+        <v>1255334</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9069391866167303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8904204194601446</v>
+        <v>0.8907477427642169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9221822635037836</v>
+        <v>0.9214472549820832</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>50015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37166</v>
+        <v>38096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65603</v>
+        <v>65887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05308214422681393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03944489444585033</v>
+        <v>0.04043216290421379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06962565519236012</v>
+        <v>0.06992677338575033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -1416,19 +1416,19 @@
         <v>96881</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79572</v>
+        <v>79156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117004</v>
+        <v>115891</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0932795324471669</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0766135051253243</v>
+        <v>0.07621341892715568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1126538583618854</v>
+        <v>0.1115822167273123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -1437,19 +1437,19 @@
         <v>146896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127544</v>
+        <v>125049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175443</v>
+        <v>171778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07415886635425011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06438913130645602</v>
+        <v>0.06312960611269543</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08857049074338913</v>
+        <v>0.08672017010111045</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>892207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>876619</v>
+        <v>876335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>905056</v>
+        <v>904126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9469178557731861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.930374344807641</v>
+        <v>0.9300732266142496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9605551055541504</v>
+        <v>0.9595678370957866</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>903</v>
@@ -1487,19 +1487,19 @@
         <v>941731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>921608</v>
+        <v>922721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>959040</v>
+        <v>959456</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9067204675528331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8873461416381145</v>
+        <v>0.8884177832726878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9233864948746757</v>
+        <v>0.9237865810728444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1847</v>
@@ -1508,19 +1508,19 @@
         <v>1833938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1805391</v>
+        <v>1809056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853290</v>
+        <v>1855785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9258411336457499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9114295092566109</v>
+        <v>0.9132798298988898</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.935610868693544</v>
+        <v>0.9368703938873045</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>170534</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0520469061498945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -1633,19 +1633,19 @@
         <v>286809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08487502925932525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>445</v>
@@ -1654,19 +1654,19 @@
         <v>457343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06871412794003992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3106009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3077886</v>
+        <v>3077842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3127074</v>
+        <v>3129565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9479530938501055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9393700349117051</v>
+        <v>0.9393566033844197</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9543820823054499</v>
+        <v>0.9551424715468998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3020</v>
@@ -1704,19 +1704,19 @@
         <v>3092388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3060110</v>
+        <v>3055537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3123239</v>
+        <v>3123188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9151249707406748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9055730689747237</v>
+        <v>0.9042198339151947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9242546513314053</v>
+        <v>0.9242396024695594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6066</v>
@@ -1725,19 +1725,19 @@
         <v>6198398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6155518</v>
+        <v>6159645</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6238946</v>
+        <v>6238778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9312858720599601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9248433105757647</v>
+        <v>0.9254634188790227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9373781893022235</v>
+        <v>0.9373529242230653</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>45681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32950</v>
+        <v>33544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59939</v>
+        <v>61380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0649364457271287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04683971767340306</v>
+        <v>0.04768328259951696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08520475409392957</v>
+        <v>0.08725308495975895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -2090,19 +2090,19 @@
         <v>102966</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85684</v>
+        <v>83493</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126178</v>
+        <v>122181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1477164220368806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1229233756880335</v>
+        <v>0.119780026013696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1810176038336017</v>
+        <v>0.1752830497564997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -2111,19 +2111,19 @@
         <v>148647</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127356</v>
+        <v>126893</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>172359</v>
+        <v>172796</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1061367317145987</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09093505506097581</v>
+        <v>0.09060429071323535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1230678153549853</v>
+        <v>0.123380058317828</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>657788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>643530</v>
+        <v>642089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670519</v>
+        <v>669925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9350635542728714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9147952459060699</v>
+        <v>0.912746915040241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9531602823265968</v>
+        <v>0.9523167174004831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>552</v>
@@ -2161,19 +2161,19 @@
         <v>594084</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>570872</v>
+        <v>574869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>611366</v>
+        <v>613557</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8522835779631194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8189823961663981</v>
+        <v>0.8247169502435002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8770766243119663</v>
+        <v>0.8802199739863039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1182</v>
@@ -2182,19 +2182,19 @@
         <v>1251872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1228160</v>
+        <v>1227723</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1273163</v>
+        <v>1273626</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8938632682854013</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8769321846450148</v>
+        <v>0.8766199416821721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9090649449390243</v>
+        <v>0.9093957092867647</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>74959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58753</v>
+        <v>58634</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93470</v>
+        <v>93557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07371419761891407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05777682764578682</v>
+        <v>0.05766010003073753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.091917421000658</v>
+        <v>0.09200291970147592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -2307,19 +2307,19 @@
         <v>150255</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126779</v>
+        <v>126575</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173385</v>
+        <v>174465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1455704469775919</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1228259323132299</v>
+        <v>0.1226279610717731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1679791819076628</v>
+        <v>0.1690248682523946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -2328,19 +2328,19 @@
         <v>225215</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197497</v>
+        <v>197060</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>254604</v>
+        <v>257493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1099104253937958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09638341536480262</v>
+        <v>0.09617030575199079</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1242531326410088</v>
+        <v>0.1256631088235359</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>941934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923423</v>
+        <v>923336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>958140</v>
+        <v>958259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9262858023810859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9080825789993422</v>
+        <v>0.9079970802985242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9422231723542133</v>
+        <v>0.9423398999692625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>804</v>
@@ -2378,19 +2378,19 @@
         <v>881929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>858799</v>
+        <v>857719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>905405</v>
+        <v>905609</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8544295530224081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8320208180923373</v>
+        <v>0.8309751317476055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8771740676867702</v>
+        <v>0.8773720389282269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1671</v>
@@ -2399,19 +2399,19 @@
         <v>1823862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1794473</v>
+        <v>1791584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1851580</v>
+        <v>1852017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8900895746062042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8757468673589912</v>
+        <v>0.8743368911764635</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9036165846351972</v>
+        <v>0.9038296942480091</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>43270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31120</v>
+        <v>30513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60618</v>
+        <v>59395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05711297528096267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04107522903347978</v>
+        <v>0.04027427737651847</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0800113205103493</v>
+        <v>0.07839682016124325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -2524,19 +2524,19 @@
         <v>101091</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83230</v>
+        <v>83542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123379</v>
+        <v>122919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1302520301538747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.10723921097719</v>
+        <v>0.1076406011692584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1589689345752414</v>
+        <v>0.1583769810713573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -2545,19 +2545,19 @@
         <v>144361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121030</v>
+        <v>122353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171508</v>
+        <v>168683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09412350533993183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07891183379050018</v>
+        <v>0.07977400504074282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1118233424749959</v>
+        <v>0.1099816502232183</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>714353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697005</v>
+        <v>698228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>726503</v>
+        <v>727110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9428870247190373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9199886794896508</v>
+        <v>0.9216031798387567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9589247709665203</v>
+        <v>0.9597257226234815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -2595,19 +2595,19 @@
         <v>675028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652740</v>
+        <v>653200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692889</v>
+        <v>692577</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8697479698461253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8410310654247586</v>
+        <v>0.8416230189286424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.89276078902281</v>
+        <v>0.8923593988307413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1264</v>
@@ -2616,19 +2616,19 @@
         <v>1389381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1362234</v>
+        <v>1365059</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1412712</v>
+        <v>1411389</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9058764946600681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8881766575250041</v>
+        <v>0.8900183497767817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9210881662094996</v>
+        <v>0.9202259949592571</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>66675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51404</v>
+        <v>50376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84700</v>
+        <v>85374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07042147854343403</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05429241380712652</v>
+        <v>0.05320662387945239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08945920278880487</v>
+        <v>0.09017129815420974</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -2741,19 +2741,19 @@
         <v>141898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120994</v>
+        <v>119970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165432</v>
+        <v>164565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1350177899807935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1151278090577923</v>
+        <v>0.1141530030298665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1574106217506035</v>
+        <v>0.1565859102229145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -2762,19 +2762,19 @@
         <v>208573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181123</v>
+        <v>182062</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239425</v>
+        <v>238020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1044035045190726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09066294693011048</v>
+        <v>0.09113292739063963</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.119846721075678</v>
+        <v>0.1191435565592936</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>880127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>862102</v>
+        <v>861428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>895398</v>
+        <v>896426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9295785214565659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9105407972111952</v>
+        <v>0.9098287018457902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9457075861928734</v>
+        <v>0.9467933761205476</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>867</v>
@@ -2812,19 +2812,19 @@
         <v>909058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>885524</v>
+        <v>886391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>929962</v>
+        <v>930986</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8649822100192065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8425893782493965</v>
+        <v>0.8434140897770858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8848721909422077</v>
+        <v>0.8858469969701336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1715</v>
@@ -2833,19 +2833,19 @@
         <v>1789185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1758333</v>
+        <v>1759738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1816635</v>
+        <v>1815696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8955964954809273</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801532789243222</v>
+        <v>0.8808564434407065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9093370530698897</v>
+        <v>0.9088670726093604</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>230586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06732842918983493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>462</v>
@@ -2958,19 +2958,19 @@
         <v>496210</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1395295092315806</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>671</v>
@@ -2979,19 +2979,19 @@
         <v>726796</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1041090885459792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3194202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3161299</v>
+        <v>3163658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3225474</v>
+        <v>3224141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9326715708101651</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9230641979270913</v>
+        <v>0.923753077573391</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9418025112769044</v>
+        <v>0.9414133149229678</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2834</v>
@@ -3029,19 +3029,19 @@
         <v>3060099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3013429</v>
+        <v>3018215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3099878</v>
+        <v>3108668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8604704907684194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8473473548830608</v>
+        <v>0.8486931699863123</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8716560262270683</v>
+        <v>0.8741277136892728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5832</v>
@@ -3050,19 +3050,19 @@
         <v>6254301</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6196119</v>
+        <v>6197586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6306576</v>
+        <v>6307881</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8958909114540208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8875565948225281</v>
+        <v>0.8877668198906706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9033789043244036</v>
+        <v>0.9035658232462002</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>40725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30047</v>
+        <v>29538</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56212</v>
+        <v>53758</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06035151025384377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04452756323395018</v>
+        <v>0.04377298113822831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08330195608806014</v>
+        <v>0.07966530958291454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -3415,19 +3415,19 @@
         <v>76094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59373</v>
+        <v>61133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94286</v>
+        <v>94370</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1130942476483943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08824212255002999</v>
+        <v>0.0908577793895578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1401319354043935</v>
+        <v>0.1402571006560664</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -3436,19 +3436,19 @@
         <v>116819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95907</v>
+        <v>97592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141108</v>
+        <v>139882</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08668450494630738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07116656828151019</v>
+        <v>0.07241724761221509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1047079373401083</v>
+        <v>0.1037981177635136</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>634075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>618588</v>
+        <v>621042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>644753</v>
+        <v>645262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9396484897461562</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9166980439119398</v>
+        <v>0.9203346904170854</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9554724367660496</v>
+        <v>0.9562270188617716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>595</v>
@@ -3486,19 +3486,19 @@
         <v>596745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578553</v>
+        <v>578469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>613466</v>
+        <v>611706</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8869057523516056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8598680645956066</v>
+        <v>0.8597428993439337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9117578774499701</v>
+        <v>0.9091422206104421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1208</v>
@@ -3507,19 +3507,19 @@
         <v>1230820</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1206531</v>
+        <v>1207757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1251732</v>
+        <v>1250047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9133154950536926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8952920626598916</v>
+        <v>0.8962018822364866</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9288334317184898</v>
+        <v>0.9275827523877851</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>39970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27542</v>
+        <v>29027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52728</v>
+        <v>54204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03909286161096793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02693811488370417</v>
+        <v>0.02839018074806199</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05157155418063596</v>
+        <v>0.05301435180125223</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -3632,19 +3632,19 @@
         <v>111023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91400</v>
+        <v>92066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134568</v>
+        <v>134623</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1064543490188677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08763921994257561</v>
+        <v>0.08827821551723916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1290304581956716</v>
+        <v>0.1290834366477395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -3653,19 +3653,19 @@
         <v>150992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127484</v>
+        <v>125409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173982</v>
+        <v>175246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07310761714898237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06172531552423378</v>
+        <v>0.06072072814436539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08423870252261542</v>
+        <v>0.08485066982950558</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>982461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>969703</v>
+        <v>968227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>994889</v>
+        <v>993404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9609071383890321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9484284458193636</v>
+        <v>0.9469856481987471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9730618851162959</v>
+        <v>0.971609819251938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>879</v>
@@ -3703,19 +3703,19 @@
         <v>931890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>908345</v>
+        <v>908290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951513</v>
+        <v>950847</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8935456509811323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8709695418043283</v>
+        <v>0.8709165633522603</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9123607800574242</v>
+        <v>0.9117217844827606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1790</v>
@@ -3724,19 +3724,19 @@
         <v>1914352</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1891362</v>
+        <v>1890098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1937860</v>
+        <v>1939935</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9268923828510176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9157612974773847</v>
+        <v>0.9151493301704944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9382746844757665</v>
+        <v>0.9392792718556345</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>37249</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25707</v>
+        <v>26303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52813</v>
+        <v>52726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04904138509902698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03384559780561854</v>
+        <v>0.03462984844460095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06953222601342038</v>
+        <v>0.06941667288906306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3849,19 +3849,19 @@
         <v>88679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72118</v>
+        <v>71467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109488</v>
+        <v>106667</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.112965806273713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09186914461926438</v>
+        <v>0.0910392521520146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1394726461487474</v>
+        <v>0.1358797035849063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -3870,19 +3870,19 @@
         <v>125929</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104528</v>
+        <v>105322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152683</v>
+        <v>150535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08153042047470097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06767478077196629</v>
+        <v>0.06818875549224389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09885192883333788</v>
+        <v>0.09746093504363187</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>722303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>706739</v>
+        <v>706826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>733845</v>
+        <v>733249</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.950958614900973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9304677739865801</v>
+        <v>0.9305833271109368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9661544021943814</v>
+        <v>0.9653701515553987</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -3920,19 +3920,19 @@
         <v>696332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675523</v>
+        <v>678344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>712893</v>
+        <v>713544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.887034193726287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8605273538512526</v>
+        <v>0.8641202964150937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9081308553807356</v>
+        <v>0.9089607478479854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1320</v>
@@ -3941,19 +3941,19 @@
         <v>1418634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1391880</v>
+        <v>1394028</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1440035</v>
+        <v>1439241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9184695795252991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9011480711666621</v>
+        <v>0.9025390649563682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9323252192280338</v>
+        <v>0.9318112445077561</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>63463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49315</v>
+        <v>48906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81284</v>
+        <v>81358</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06768944589139353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05259895743448503</v>
+        <v>0.05216278491899578</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08669684099910585</v>
+        <v>0.08677560146781634</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -4066,19 +4066,19 @@
         <v>102316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83266</v>
+        <v>83428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123190</v>
+        <v>123737</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09802504483842968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07977390997148777</v>
+        <v>0.07992865144137741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1180232676075907</v>
+        <v>0.1185466557203079</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -4087,19 +4087,19 @@
         <v>165780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141371</v>
+        <v>140123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192765</v>
+        <v>191159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08367033026454594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07135087934396107</v>
+        <v>0.07072119578807583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0972900324378532</v>
+        <v>0.09647956955221981</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>874104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>856283</v>
+        <v>856209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>888252</v>
+        <v>888661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9323105541086064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9133031590008943</v>
+        <v>0.9132243985321836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9474010425655151</v>
+        <v>0.9478372150810043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>868</v>
@@ -4137,19 +4137,19 @@
         <v>941463</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>920589</v>
+        <v>920042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>960513</v>
+        <v>960351</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9019749551615703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8819767323924093</v>
+        <v>0.8814533442796921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9202260900285122</v>
+        <v>0.9200713485586226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1739</v>
@@ -4158,19 +4158,19 @@
         <v>1815566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1788581</v>
+        <v>1790187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1839975</v>
+        <v>1841223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.916329669735454</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9027099675621467</v>
+        <v>0.9035204304477802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.928649120656039</v>
+        <v>0.9292788042119242</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>181408</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0534440537564743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>339</v>
@@ -4283,19 +4283,19 @@
         <v>378113</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.106674636335404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>512</v>
@@ -4304,19 +4304,19 @@
         <v>559521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08063543046025795</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3212942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3182994</v>
+        <v>3185764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3236841</v>
+        <v>3239449</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9465559462435257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.937733036055968</v>
+        <v>0.9385489575790636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9535967113769248</v>
+        <v>0.9543650006604973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2999</v>
@@ -4354,19 +4354,19 @@
         <v>3166429</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3122875</v>
+        <v>3123180</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3199495</v>
+        <v>3205082</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.893325363664596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8810376454218026</v>
+        <v>0.881123750832229</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9026540643751262</v>
+        <v>0.9042302914159772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6057</v>
@@ -4375,19 +4375,19 @@
         <v>6379371</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6329144</v>
+        <v>6332769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6426100</v>
+        <v>6422354</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9193645695397421</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9121260611492846</v>
+        <v>0.9126484545908045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9260989087563697</v>
+        <v>0.9255589481068494</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>36738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26688</v>
+        <v>27144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50833</v>
+        <v>50936</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05318922000116483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03863868046675888</v>
+        <v>0.03929822387329842</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07359464252762297</v>
+        <v>0.07374392456153751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -4740,19 +4740,19 @@
         <v>70305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59738</v>
+        <v>58522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84515</v>
+        <v>83452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0959779399563489</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08155216284335723</v>
+        <v>0.07989261062706321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1153763723657484</v>
+        <v>0.1139258624824505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -4761,19 +4761,19 @@
         <v>107043</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90292</v>
+        <v>92222</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124721</v>
+        <v>126636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07521196828794256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06344220596383628</v>
+        <v>0.0647978137203791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08763265271744446</v>
+        <v>0.08897844106636951</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>653972</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>639877</v>
+        <v>639774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>664022</v>
+        <v>663566</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9468107799988353</v>
+        <v>0.9468107799988351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9264053574723768</v>
+        <v>0.9262560754384624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9613613195332409</v>
+        <v>0.9607017761267017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1108</v>
@@ -4811,19 +4811,19 @@
         <v>662207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>647997</v>
+        <v>649060</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>672774</v>
+        <v>673990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9040220600436512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8846236276342515</v>
+        <v>0.8860741375175496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9184478371566426</v>
+        <v>0.9201073893729368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1797</v>
@@ -4832,19 +4832,19 @@
         <v>1316179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1298501</v>
+        <v>1296586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1332930</v>
+        <v>1331000</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9247880317120575</v>
+        <v>0.9247880317120576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9123673472825556</v>
+        <v>0.9110215589336309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9365577940361638</v>
+        <v>0.9352021862796212</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>57303</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44051</v>
+        <v>44234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73806</v>
+        <v>74287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05463087314561491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04199660862544295</v>
+        <v>0.04217067267301185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07036433953851308</v>
+        <v>0.07082279383621477</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -4957,19 +4957,19 @@
         <v>109062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93207</v>
+        <v>92241</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128699</v>
+        <v>126499</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1019176656021917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08710096160434282</v>
+        <v>0.08619864243258271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1202680602711191</v>
+        <v>0.1182126254368858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -4978,19 +4978,19 @@
         <v>166365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145315</v>
+        <v>145464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>191604</v>
+        <v>192597</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07851059560855049</v>
+        <v>0.0785105956085505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06857659088305321</v>
+        <v>0.06864718962758452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09042118195179318</v>
+        <v>0.09088974038643066</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>991614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975111</v>
+        <v>974630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1004866</v>
+        <v>1004683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9453691268543851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.929635660461487</v>
+        <v>0.9291772061637853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9580033913745573</v>
+        <v>0.9578293273269876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1349</v>
@@ -5028,19 +5028,19 @@
         <v>961036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>941399</v>
+        <v>943599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>976891</v>
+        <v>977857</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8980823343978083</v>
+        <v>0.8980823343978084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8797319397288805</v>
+        <v>0.8817873745631144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9128990383956566</v>
+        <v>0.9138013575674174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2252</v>
@@ -5049,19 +5049,19 @@
         <v>1952650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927411</v>
+        <v>1926418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1973700</v>
+        <v>1973551</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9214894043914496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9095788180482068</v>
+        <v>0.9091102596135693</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9314234091169469</v>
+        <v>0.931352810372415</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>58775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44916</v>
+        <v>43998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77808</v>
+        <v>77652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07318739618536568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05593061470798681</v>
+        <v>0.05478754896271442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09688787956111233</v>
+        <v>0.09669331011901418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -5174,19 +5174,19 @@
         <v>90900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75068</v>
+        <v>74132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109612</v>
+        <v>107609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1119099382712252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09241833042035009</v>
+        <v>0.09126631238550055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1349468891556609</v>
+        <v>0.1324807201091397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -5195,19 +5195,19 @@
         <v>149675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127369</v>
+        <v>128020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174199</v>
+        <v>175815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09265876639941077</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07884999893501807</v>
+        <v>0.07925309889232571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1078409134529437</v>
+        <v>0.108841479981405</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>744298</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>725265</v>
+        <v>725421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>758157</v>
+        <v>759075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9268126038146344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9031121204388874</v>
+        <v>0.9033066898809858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.944069385292013</v>
+        <v>0.9452124510372857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>929</v>
@@ -5245,19 +5245,19 @@
         <v>721359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702647</v>
+        <v>704650</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>737191</v>
+        <v>738127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8880900617287747</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8650531108443388</v>
+        <v>0.8675192798908602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9075816695796497</v>
+        <v>0.9087336876144996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1552</v>
@@ -5266,19 +5266,19 @@
         <v>1465657</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1441133</v>
+        <v>1439517</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1487963</v>
+        <v>1487312</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9073412336005892</v>
+        <v>0.9073412336005893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8921590865470563</v>
+        <v>0.891158520018595</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9211500010649817</v>
+        <v>0.9207469011076741</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>50156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37657</v>
+        <v>38574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65938</v>
+        <v>63880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0507209867645475</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03808103050078433</v>
+        <v>0.039008868455327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06668090738775161</v>
+        <v>0.06459937911981289</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -5391,19 +5391,19 @@
         <v>132536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112758</v>
+        <v>115674</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151066</v>
+        <v>152945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1184964598075022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1008132552923246</v>
+        <v>0.1034207498622395</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.135063345811454</v>
+        <v>0.1367438647057133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>254</v>
@@ -5412,19 +5412,19 @@
         <v>182692</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160101</v>
+        <v>161398</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206605</v>
+        <v>205685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08669311068127211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07597275899151971</v>
+        <v>0.07658827809142227</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09804054935522606</v>
+        <v>0.09760400449217936</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>938704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>922922</v>
+        <v>924980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>951203</v>
+        <v>950286</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9492790132354525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.933319092612248</v>
+        <v>0.9354006208801868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9619189694992153</v>
+        <v>0.9609911315446727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1368</v>
@@ -5462,19 +5462,19 @@
         <v>985944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>967414</v>
+        <v>965535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005722</v>
+        <v>1002806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8815035401924978</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8649366541885456</v>
+        <v>0.8632561352942867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8991867447076753</v>
+        <v>0.8965792501377604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2311</v>
@@ -5483,19 +5483,19 @@
         <v>1924649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1900736</v>
+        <v>1901656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1947240</v>
+        <v>1945943</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9133068893187277</v>
+        <v>0.9133068893187278</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9019594506447745</v>
+        <v>0.9023959955078206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9240272410084803</v>
+        <v>0.9234117219085777</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>202972</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0574738507724156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>606</v>
@@ -5608,19 +5608,19 @@
         <v>402803</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1078931166245219</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>822</v>
@@ -5629,19 +5629,19 @@
         <v>605775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3328588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3298459</v>
+        <v>3298096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3355464</v>
+        <v>3355111</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9425261492275845</v>
+        <v>0.9425261492275846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9339948301958544</v>
+        <v>0.9338920623808629</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9501363545975118</v>
+        <v>0.9500364480538633</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4754</v>
@@ -5679,19 +5679,19 @@
         <v>3330545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3294988</v>
+        <v>3295296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3363665</v>
+        <v>3365364</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8921068833754782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8825825088582291</v>
+        <v>0.8826651937368915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9009781771940923</v>
+        <v>0.9014332952594525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7912</v>
@@ -5700,19 +5700,19 @@
         <v>6659134</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6613471</v>
+        <v>6613294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6701058</v>
+        <v>6700498</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9166163002362596</v>
+        <v>0.9166163002362595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9103308770778858</v>
+        <v>0.9103065146575522</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9223870411720344</v>
+        <v>0.9223099658356378</v>
       </c>
     </row>
     <row r="18">
